--- a/excel data/WEDNESDAY.xlsx
+++ b/excel data/WEDNESDAY.xlsx
@@ -1435,7 +1435,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="AC6" t="n">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="AG6" t="n">
@@ -1993,11 +1993,11 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ZL</t>
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>FD/BK</t>
         </is>
       </c>
       <c r="AC8" t="n">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>AS/SH</t>
         </is>
       </c>
       <c r="AG8" t="n">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>JW</t>
         </is>
       </c>
       <c r="AC11" t="n">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>JW</t>
         </is>
       </c>
       <c r="AG11" t="n">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AC25" t="n">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AG25" t="n">
